--- a/data/hotels_by_city/Dallas/Dallas_shard_349.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_349.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>1scrappyRN</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Catherine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r550042405-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>My family spent 9 days at this hotel while visiting our son and wife in Dallas for the Christmas holiday. My 85 year old mother was with us and had a somewhat serious health episode while at the hotel. The staff could not have been more helpful or attentive to our needs during this crisis. Since my mother wound up being hospitalized for several days they always inquired as to her wellbeing. I want to give a special shoutout to Dante. What a great employee of Holiday Inn. He called an ambulance for us and was very supportive. I also want to mention Chanita and Monica who were also so attentive to our needs. We would return to this hotel for the excellent staff and convenience to the expressway.More</t>
   </si>
   <si>
+    <t>Jerry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r579755833-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>My wife and I chose this property to stay while in Dallas to attend Lynyrd Skynyrd/Bad Company concert at the Starplex Pavilion.  The property was nicely located near the Starplex, only 4.5 miles, and well away from the high traffic, busy downtown area.  Self-parking made it convenient and less costly than valet and garage parking.  Walmart and many restaurants and businesses are nearby.  The property is clean and appears to be well kept.  May have been recently remodeled.  All was well until my wife saw something crawling in the wet bar sink.  She hates insects, especially spiders and roaches.  I came to the rescue and killed an adult roach.  I explained to her it might be an isolated incident and we continued to enjoy our stay after a long drive.  After we readied for bed, I visited the bathroom and noticed a baby roach on toilet.  I disposed of it, not saying anything to my wife as I knew she would want to change rooms or even hotels.  It was not until I got up early, entered the bathroom, turning on the light to find the adult roach in the picture froze on the wall that I knew this was more than an isolated incident.  I again disposed of it and knowing we had a busy day and concert ahead of us, not wanting to change rooms or hotels, said nothing to my wife. Fortunately the day and concert went...My wife and I chose this property to stay while in Dallas to attend Lynyrd Skynyrd/Bad Company concert at the Starplex Pavilion.  The property was nicely located near the Starplex, only 4.5 miles, and well away from the high traffic, busy downtown area.  Self-parking made it convenient and less costly than valet and garage parking.  Walmart and many restaurants and businesses are nearby.  The property is clean and appears to be well kept.  May have been recently remodeled.  All was well until my wife saw something crawling in the wet bar sink.  She hates insects, especially spiders and roaches.  I came to the rescue and killed an adult roach.  I explained to her it might be an isolated incident and we continued to enjoy our stay after a long drive.  After we readied for bed, I visited the bathroom and noticed a baby roach on toilet.  I disposed of it, not saying anything to my wife as I knew she would want to change rooms or even hotels.  It was not until I got up early, entered the bathroom, turning on the light to find the adult roach in the picture froze on the wall that I knew this was more than an isolated incident.  I again disposed of it and knowing we had a busy day and concert ahead of us, not wanting to change rooms or hotels, said nothing to my wife. Fortunately the day and concert went well.  Returned to the property and retired, again visiting the bathroom to find another adult and baby roach.  Luckily my wife only saw and knew of the first roach.  I advised the front desk and hopefully this will keep them from having another guest impositioned or leaving their property due to this.  More</t>
   </si>
   <si>
+    <t>TomJ56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r576323047-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>slaterster03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r544607971-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>Place looks and feels cheap. Staff warned us not to park or walk in back of property due to danger issues. First room bed was broken. Moved us to another room. Breakfast was ok. It is in a sketchy part of time. Probably can do better than saying here. More</t>
   </si>
   <si>
+    <t>Terri R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r542851919-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>This was our first time staying at this Holiday Inn. I'm surprised that any reviewers found this place not spic and span...? The bedding and towels etc are in a fresh, crisp white! I love using white myself as it is so easy to get any stains out of plain white. The staff here has done an excellent job as our room and bathroom were impeccable! The beds were amazingly comfy! I always use my own pillow whilst traveling, but these pillows were as comfy as the ones I use at home. The breakfast was varied and really good. A fair amount of choices to accommodate most dietary needs. I enjoyed a nice hot bath. My husband said the shower was ok, but lacked water pressure. One thing I was surprised about was there wasn't a hairdryer in the room. Possibly it was available on request, but I didn't bother as we did have our personal one with us. We got in the night before and were quite hungry. There are a lot of choices of places to eat within a very reasonable distance. Also this was nicely located for a stop over at night and a great location to get started again the next day. Overall great place and would definitely stay here again!More</t>
   </si>
   <si>
+    <t>PhoenisSunDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r520271734-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>First time staying at this HIE. Front desk was friendly and helpful. Rooms were clean and modern with coffee makers, fridge, and microwaved. Breakfast bar was usual Holiday Inn Express fare. For was hot and fresh. Would stay here again. More</t>
   </si>
   <si>
+    <t>Derek S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r506000955-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>The outside looks nice, there is plenty of parking and the pricing is very fair. The overwhelming majority of the staff was friendly, but the night clerk was not. We booked through a third party and there were some serious problems with the room. They weren't completely corrected but the manager was nice and did try to resolve the issues. The hot tub was not hot at all, it was set to 80 degrees which is cold for a hot tub. There were also a lot of ants in the pool area. There is a shuttle but it only goes within a 3 mile radius so it will not go downtown or to the airport. The breakfast was good. The bed was comfortable and the rest of the room was nice.More</t>
   </si>
   <si>
+    <t>Sofia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r497283321-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>The clerk who checked us is was super nice and friendly.  When we checked in only one of our rooms were ready so we had to wait after 4pm for the other room to be cleaned. Unfortunately,  when the clerk gave us the keys the housekeepers were still not done cleaning 416. Also, later that night in room 405 we saw that one of our comforters had blood stains and the other one had blue stains.....More</t>
   </si>
   <si>
+    <t>ilovemaxi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r488923499-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>The staff was nice, no complaints there. The room was grungy and dirty: curtains and carpet were stained. The ac unit was turned off. Not sure why in Dallas in May. When I went to turn on the unit ants came out from all over the unit. There was only 1 clean towel in bathroom. Also the neighborhood was very shady...I was actually concerned about driving around alone. I made the decision to not stay and I just left my keys at the desk and left. Will not return to this hotel again.More</t>
   </si>
   <si>
+    <t>Jim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r479523055-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>I was at this place during the past week.  I have stayed there before during a business trip to the area.  The rooms were clean and beds comfortable.  The breakfast was your normal continental style, pancakes from a machine, veggie omelet and scrambled eggs.  They also had cereal and stuff like that.  It was not too bad.  They let me check in early, my flight was early.  Staff was very friendly.  If in the area and this hotel is close to where I need to be, will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Kerry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r479475349-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>Booked as a last minute deal as part of a road trip around Texas &amp; is by far the best place we booked. Staff are friendly &amp; welcoming. Two queen size beds in a lovely clean room with a Keurig coffee machine, fridge &amp; microwave in room. Breakfast was plentiful &amp; varied with green tea which has been rare in USA! Although it was next to a busy road it was quiet &amp; easy to sleep. Neighbourhood felt safe &amp; there's a Meat Market next door for snacks.More</t>
   </si>
   <si>
+    <t>Scott-from-Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r472419408-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>The hotel itself is nice, the breakfast is exceptional with eggs, 2 types of sausage, hot pancake machine, yogurt, etc. The parking lot is well lit out front and the hotel entrance ramp is in front of the hotel. The lobby is pretty nice and the breakfast room has a decent amount of seating. The pool area is nice and has a separate hot tub. The staff was adequately friendly but not over the top. The air conditioning in the rooms was excellent. We stayed in a suite and the water pressure was great from the faucet but a bit weak in the shower head. Also, there was a speaker in the bathroom connected to the television so I got to listen to whatever program my kids were watching while showering. A bit strange, but the annoying part is the bathroom speaker cannot be turned off, except by turning the tv off. The was also no fan in the bathroom so can get steamy in there after 4 people take showers. The beds were a little stiff but the pillows awesome. The surrounding area isn't bad, but just a tad sketchy. Tons of fast food places to eat nearby. TV channel selection was pretty good. The wifi worked well. Keurig machine was a nice touch in addition to microwave and fridge in the room.More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r465208363-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,6 +537,9 @@
     <t>I was disappointed the moment I walked into the program because I was not welcomed as a member of IHG rewards program, nor was I offered usual welcome gift.  The front desk staff was lacking in ability to answer questions about the area.  Also, in our room there was a very small tv and two different listings of channels neither of which was correct.  All lists including one at first desk said they had Fox News, but it was not on our set.  The TV remote was basic so it did not have a channel guide that would have enabled me to see what channels and shows were available.  Breakfast was good and the staff kept food in ample supply.  It was good location for the Fairgrounds.More</t>
   </si>
   <si>
+    <t>Rachel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r449449036-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>Room is great. Very clean and very comfy. Beds are awesome. Indoor pool is a plus. The only thing that could be better is breakfast. Typical microwave hotel breakfast. Staff was super friendly as well. We spent 3 nights here and would definitely return. More</t>
   </si>
   <si>
+    <t>Shannon2235</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r448715176-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>This hotel we reserved because we usually have good luck with holiday inn Express and also because it was close to the botanical gardens. It is in a very shady part of town. Our stay was fine, we didn't have any troubles but the area is not nice. More</t>
   </si>
   <si>
+    <t>Erika S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r448063169-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -567,6 +618,9 @@
     <t>We stay at Holiday Inn Express 90% of the time.  This hotel made me question whether we should continue that practice.  Our room was not only our dated, but not clean.  Breakfast was almost inedible.  The bagels and English muffins were hard as a rock, and the sausage smelled as if it was spoiled.  Gross!More</t>
   </si>
   <si>
+    <t>Nicole W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r445468819-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -588,6 +642,9 @@
     <t>Used Hotwire to book this hotel and were happy with our choice. Had a spa and quick dip. Spa was deliciously hot!! No issues with any aspect of the room and facilities. It suited us quite nicely for our 2 night stay in Dallas.More</t>
   </si>
   <si>
+    <t>travelelingJohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r439840395-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -615,6 +672,9 @@
     <t>The hotel itself is quite nice. Our room was updated and well kept so we didn't have any issues with that. The rooms are large and the free wi-fi worked well for us.The common areas were clean and well kept. The free breakfast was good, eggs, sausage toast, pancakes, cereal, oatmeal, fruit, and a few other items to choose from. At night there is a security guard. Good to have them there, but bad because it makes you wonder what sort of neighborhood you are staying in! Unlike most reviewers here, we found the staff to be a bit cold and unfriendly. But maybe that was just us.All things considered we had a good stay. The price was a bit high ($150) and that is expensive for this particular hotel chain. Next time we are in the area we will likely find a lower priced hotel as the price was not worth it in our opinion.More</t>
   </si>
   <si>
+    <t>2010RAV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r399348079-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -642,12 +702,18 @@
     <t>Stayed here while in Dallas for a wedding. Nice location, VERY friendly staff. Close to everything we needed to go to. Only downside was our room was dated. It needed either a deep cleaning or carpet replacement. Bed was fine. Bathroom clean. Will stay again if in Dallas, but will request more updated room. Staff 5 stars!More</t>
   </si>
   <si>
+    <t>Amy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r380388888-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
     <t>380388888</t>
   </si>
   <si>
+    <t>blc77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r375894020-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +738,9 @@
     <t>We were only in Dallas for a very short time unfortunately but absolutely loved this place! We arrived an hour before check in but they were very kind to us &amp; upgraded us to a suit so we could check without waiting! The room was beautiful, clean &amp; the bed so soft! I love the idea of 2 pillows one soft &amp; one hard! The staff were all so nice &amp; always happy to help! The pool, spa, gym &amp; breakfast were just the perfect touches! I would recommend this place to everyone &amp; will definitely stay again when I'm in Dallas! More</t>
   </si>
   <si>
+    <t>Carmida R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r373870963-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -696,6 +765,9 @@
     <t>Nice clean hotel. Comfortable beds. Plenty of plugs. Wi-fi works great! Minutes away from the Gexa. Plenty of Restaurants and stores close by. Staff was great. We arrived early, waited minimal time before being check in. Indoor pool at plus. Breakfast had hot items. Not much parking at night. Area looks safe though. Would absolutely stay again. More</t>
   </si>
   <si>
+    <t>611christiea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r371920144-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,6 +792,9 @@
     <t>Great location. Stopped here because we wanted to stop at a hotel that did not put us going through downtown at rush hour.  Very accommodating staff and nice hotel.  Room was nice and comfortable.  I would recommend this hotel to anyone that just needs a nice, comfortable hotel with a free breakfast.More</t>
   </si>
   <si>
+    <t>Derek E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r370270069-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,6 +819,9 @@
     <t>This hotel is a great place to stay. Conveniently located near restaurants and Wal Mart. Whenever we are in town, this is my choice of stay as well as my companies choice. The staff is very friendly and welcoming. They have an indoor pool and spa. There is a full hot breakfast in the morning, plenty to choose from! Definitely will stay with this hotel whenever I am in town!More</t>
   </si>
   <si>
+    <t>POLLYANNA57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r368863049-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,6 +843,9 @@
     <t>Stayed 1 night after late flight arrival in to DFW and collection of rental car. We didn't seek a hotel close to airport, it isn't, which was fine.  Efficient and fast check-in by helpful and pleasant lady. The hotel is large, was impeccably clean, all staff friendly, free car parking and WIFI which worked perfectly. Elevators, Guest laundry and a very popular pool. We booked room thru QANTAS for flyer points and won't do this again. Room was large, basic and OK however we get better rooms using our Holiday Inn loyalty and usually get upgraded anyway. Room had a microwave and mini frig. In walking distance of hotel are a DENNY's, McDonalds and a 7Eleven which sold food, beer and wine. The free breakfast was excellent. Hot and cold food choices, and a pancake machine. The attractive breakfast room coped well with the large number of guests there during School Spring Break. Lady in charge of breakfast room was hard working  and attentive. The Reception area had supplies of snacks and even microwave meals for sale too. Our brief stay was relaxing and enjoyable.More</t>
   </si>
   <si>
+    <t>crystal m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r360411153-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,6 +873,9 @@
     <t>I Visit this hotel March 24-27. The room was nice and clean. The staff is nice and friendly. There is an indoor pool and jacuzzi.  Didn't eat breakfast but my family enjoyed it. The breakfast including bacon, pork and turkey sausage, pancake, cinnamon rolls etc. The hotel is close to restaurants and stores. Wifi is a little slow in the rooms.More</t>
   </si>
   <si>
+    <t>Rose B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r350865658-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -819,6 +903,9 @@
     <t>A very inviting clean and comfy hotel.  There were quite a few cheer parents staying at this hotel and we absolutely enjoyed our stay.  The breakfast was tasty and offered so much! They let us congregate in the lobby to enjoy each other's company.  It was close to so many attractions.  Great value for the area and the hotel was excellent.  Extremely friendly staff - so helpful.  The pool was a bit chilly for swimming and it was very dark in the pool area after supper (not a big deal).More</t>
   </si>
   <si>
+    <t>GregsAddiction</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r338765099-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -846,6 +933,9 @@
     <t>I booked this hotel online the same day and I was very pleased! The price, and the service was great. The Customer service personnel Britne was not only knowledgeable, but gave us a free upgrade, and it was awesome! We stayed three nights, and I would recommend this location and hotel to anyone. The room we had was a suite, and it had a small kitchen. House keeping came everyday and left clean towels. The only drawback was the parking. It was hard to find parking after a certain time of day. I will always book at this place when I fly into DFW. It's extrememely close to the airport as well.More</t>
   </si>
   <si>
+    <t>Roy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r334230444-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1005,9 @@
     <t>The hotel itself was fine.  The room was clean and a good size.  After we checked in we noticed that the sink in the bathroom was not draining properly.  When we were leaving for dinner we reported it to the front desk and were told that they would send someone up to fix it the next day.  We were leaving the next door so we let it drop but were surprised that there was no apology, no offer to have someone look at it then, etc.  We left the next day and decided that Holiday Inns won't be our first choice for our next trip.More</t>
   </si>
   <si>
+    <t>Evelyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r328185130-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1035,9 @@
     <t>We were very pleased with our stay at this hotel.  The employees were friendly and courteous; check-in was a breeze with Ian, the desk clerk (Who was very welcoming). We stayed on the fourth floor and it was a very quiet and clean room.  The whole facility was spotlessly clean. The breakfast was fabulous with a variety of foods (eggs, biscuits, gravy, cereals, fresh fruit, sausage) and was replenished constantly.  The pool and spa area was well-maintained and the temperature of the water was perfect. The hotel was conveniently located for our visits to the Dallas Botanical Gardens, Perot Museum, and JFK Museum.  They were all less than 10 minutes by car.  We were not bothered by the neighborhood at all; in fact, there is a Mexican store next door that we walked to which offers decent food.  You do need a car if you stay here. This is where we would stay on another visit to Dallas.More</t>
   </si>
   <si>
+    <t>ChrisC4444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r328016228-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1056,9 @@
     <t>Outstanding stay me and my lady spend the night here for a concert at the House of Blues. Room was big and quiet. Privacy was great as well. Close to everything you need to get to. Bathroom was clean and big. I'm 6'8 and was amazed at how big the bathroom and shower was height wise. I been to a lot of top hotels and the ceiling was very short. I always had to duck to get in and keep my head down while taking my shower at those hotels. This Holiday Inn did it right for us taller guys. Yes the hotel is right off the highway but it was quiet for sure. Of course you heard a few motorcycles or 18 wheelers go by but nothing that'll make you complain or even go to another hotel. Was always greeted with a smiling face from the front desk. Would definitely pick this Holiday Inn again. If you're looking to stay in the Dallas area but doesn't want to deal with downtown definitely stay here. You won't regret it. More</t>
   </si>
   <si>
+    <t>Phyllis J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r326567599-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1083,9 @@
     <t>I booked 5 rooms for my son's wedding.  This was the most convenient to the venue and it turned out to be a great choice.  The rooms were clean, the breakfast excellent, and the staff was lovely. The neighborhood is sort of sketchy, but I never felt unsafe.  I would stay there in the future if necessary.More</t>
   </si>
   <si>
+    <t>amcg72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r314561408-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1113,9 @@
     <t>We stayed in 305. 1 adult, 3 older kids. No real big problems. The front desk people were very helpful and nice. The room was clean. The shower water pressure was quite lacking and disappointing but other than that, our stay (2 nights) went well. The breakfast was your typical HIE breakfast. Indoor pool was nice for my youngest to burn off some post-travel energy. Went to the State Fair. Not as close as I expected but just a few exits down RL Thornton. Why they don't put in 4 towels for rooms that sleep 4 is always a bit of a head shaker to me...More</t>
   </si>
   <si>
+    <t>courtney3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r312534132-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1140,9 @@
     <t>After I made it passed the smell and the black hairs on my pillow.... I went to the desk to ask for an extra blanket I was risky told they didn't have extra blankets. What kind of establishment doesn't offer extra blankets. He was really rude about it. I won't be staying at this hotel againextrblanketandMore</t>
   </si>
   <si>
+    <t>nanceb4019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r303702900-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1173,9 @@
     <t>I stayed in this property in August 2015 and was disappointed!  The room (415) was not up to par!  The first thing I noticed was a strong, musty, dirty smell in the room.  The carpet seemed dirty and I was surprised at the furnishings.  First, the TV was a VERY small size (not sure diameter) but for a large "suite" it was almost silly!  The amenities were the norm.  The pool area seemed ok, except the pool water temperature was very cold and the air temperature was also. The bed was comfortable, however, the maid service (and I) did not check the alarm and was loudly awakened at 6:00 am. The area of the city that this hotel is located in is "sketchy" and I would not stay again.More</t>
   </si>
   <si>
+    <t>Ben B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r302641544-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1200,9 @@
     <t>I stayed in Room 201 at this hotel on Friday, August 21, 2015.  The room was not clean.  The carpet and upholstered furniture were filthy.  I stay in Holiday Inn properties over 12 to 15 nights per month.  I will not stay at this property every again.More</t>
   </si>
   <si>
+    <t>TheRestaurantPest_</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r297035464-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1227,9 @@
     <t>First all of after traveling over five hours to get here, we immediately got a bad vibe from the place because they charged us an extra $100 for a room because we payed with cash. Yes, we will get our cash back at the END of our trip. However, that was quite a bit of our spending money for this trip. Also upon arriving at the hotel, they informed us we would not be able to use the shuttle we were promised over the phone. After taking care of the cash and shuttle situation (neither of which worked out in our favor) we went up to our room to find a nasty stain upon one of the bed sheets. There's no telling what that stain is considering we are stuck in the ghetto of Dallas. Next up on our list of complaints is how rude the workers are here. They were rude about our cash and shuttle problems, among becoming angry at a group for being in the pool a few minutes past closing, swearing they informed us the pool was closed when they most definitely did not. We woke up early in the morning to eat our free breakfast, and in all honesty I wish we would've just stayed in bed. The biscuits and gravy were nasty, the milk was warm, and everything was dry. Also to add to our list of complaints, I'm not sure if I will...First all of after traveling over five hours to get here, we immediately got a bad vibe from the place because they charged us an extra $100 for a room because we payed with cash. Yes, we will get our cash back at the END of our trip. However, that was quite a bit of our spending money for this trip. Also upon arriving at the hotel, they informed us we would not be able to use the shuttle we were promised over the phone. After taking care of the cash and shuttle situation (neither of which worked out in our favor) we went up to our room to find a nasty stain upon one of the bed sheets. There's no telling what that stain is considering we are stuck in the ghetto of Dallas. Next up on our list of complaints is how rude the workers are here. They were rude about our cash and shuttle problems, among becoming angry at a group for being in the pool a few minutes past closing, swearing they informed us the pool was closed when they most definitely did not. We woke up early in the morning to eat our free breakfast, and in all honesty I wish we would've just stayed in bed. The biscuits and gravy were nasty, the milk was warm, and everything was dry. Also to add to our list of complaints, I'm not sure if I will even be able to post this while I'm still at this hotel because the wifi shuts off about every 30 seconds, meaning we have to reconnect and reenter the password every single time.More</t>
   </si>
   <si>
+    <t>Thunderfan5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r293159628-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1257,9 @@
     <t>Very impressed with this hotel! It was clean and very nice. Room was very modern and roomy. Beds comfy. Breakfast was delicious. Many choices, hot and cold. Pancakes, biscuits, gravy, sausages, eggs, plus all of the usual continental items as well. More</t>
   </si>
   <si>
+    <t>jrsmith8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r293151030-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1275,9 @@
     <t>This is a great motel on the East side of Dallas (shortly after Hwy. 80 converts itself into I-30). It is relatively near the arboretum and not too far from Hwy. 75 which leads up North to SMU and the George W. Bush Presidential Museum.I was very much impressed with the lobby and breakfast area. They were large, modern and well decorated. The morning breakfasts were very good, especially the eggs and the pancakes.Our room was large and very modern and most satisfactory. Frankly there is nothing bad I can say about our experience. However, caution needs to be exercised around the ground floor elevators due to the fact that the hallway in front of the elevators leads directly to and from the indoor pool area. There are often water spots on the floor which could lead to slipping if one is not careful. Throughout our entire three-day stay there was almost always a yellow caution wet floor sign somewhere in the area.With that as the only negative for me, I can confidently give the motel a four star rating.J. Randolph SmithMonroe, LAMore</t>
   </si>
   <si>
+    <t>wendy j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r291591662-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1302,9 @@
     <t>Very clean.bkfast was great, especially cinammon rolls! Super Friendly staff. Right off exit, so oy is easy to get to. Room was very clean and room was a big. Alot of channels on tv to choose from, which was a plus. We truly enjoyed our stay.More</t>
   </si>
   <si>
+    <t>johrene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r287165599-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1329,9 @@
     <t>This was a quiet, clean hotel with great service. Served a full breakfast with the room and the prices didn't break the bank! So, why not perfect? Just minor details that are easily fixed with a little more attention by management. Stopper in tub not working, regular coffee not replace on 2nd morning(only decaf in room does not make me a happy camper). Otherwise beautifully appointed room, glass countertop with integrated sink, comfortable beds, and bedding!More</t>
   </si>
   <si>
+    <t>Denis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r282354700-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1359,9 @@
     <t>When I arrived on Saturday 06/20/15 around 7:00PM Ian was not at the desk I had to wait for about five minutes and around 8:00PM that same night we went out to eat and saw two other customers looking for the front desk clerk as well.More</t>
   </si>
   <si>
+    <t>Lynn_and_Kent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r276274797-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1389,9 @@
     <t>We had several rooms, as this was our wedding's host hotel.  Can't say enough about the people and hotel!  James from Sales was excellent, for all the initial work.  Front desk, Breakfast room, and Housekeeping folks were excellent all weekend, honoring our requests, and always had a smile for us.  We were grateful to get to use the common areas for our large contingent.  Hotel itself is very nice, clean and well kept.  I certainly recommend the whole package.More</t>
   </si>
   <si>
+    <t>Regina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r273906930-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1416,9 @@
     <t>Great service and good new room of a nice size. Even close to elevators, not noisy, so good insulation. However, breakfast buffet was not able to handle guests, food was out quick (maybe due to some ppl hogging) and on-site staff had to go out and buy more. They did try though :)More</t>
   </si>
   <si>
+    <t>Andrew J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r271458138-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1443,9 @@
     <t>NIGHTMARE IN THE GHETTO! Up all night due to party people slamming doors ALL NIGHT LONG. I will be calling the police shortly. TV does not work and front desk girl could not fix so I was stuck with non working TV for the night. Hood rats loitering in the parking lot playing loud music. Hotel does nothing. No security. Only two ice machines for the WHOLE hotel! Bathroom floor tile broken. I advise you stay somewhere ELSE and definitely in a better neighborhood. Creepy people sitting in the cars in the parking lot after 12:00 AM. NEVER AGAIN.More</t>
   </si>
   <si>
+    <t>alelucky7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r270395965-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1470,9 @@
     <t>We rented 5 rooms this past weekend.  The hotel was very nice and clean.  The staff was very accommodating for our large group.  Shout out to Michael for a wonderful breakfast and for allowing us to use the lobby for group dinners and to watch the Chicago Bulls game!  He always had a smile on his face and was always willing to help in any way.  This made our trip very pleasurable.  Thank you to all the staff.  We look forward to our stay next year!More</t>
   </si>
   <si>
+    <t>Karmina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r270004404-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1500,9 @@
     <t>I was very please with this hotel, upon arrival the hotel had that clean smell and was very nice. staff in the service desk was very nice. Rooms were very spacious, beds were comfortable, was equipped with the necessities (fridge, microwave, coffee machine, TV, iron/board). The breakfast host Michael B was very friendly, very respectful, always had a smile, and was very attentive; by far one of the most hard working staff members I've seen. Was very pleased with my stay at this locationMore</t>
   </si>
   <si>
+    <t>3muskateermom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r268183484-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1527,9 @@
     <t>Made it here earlier than I thought I would. Wanted to check in or at least have my room. Long line! It's fairly hot and doesn't seem like the air was working! But the people were friendly and checked up in as quick as possible. Not as good as the last hotel I just left!More</t>
   </si>
   <si>
+    <t>Tonya A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r261054536-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1557,9 @@
     <t>We were pleasantly surprised at the superior service we received at this hotel.  The decor and personal attention to every detail was fantastic.  The bed was extremely comfortable and everything in the hotel was immaculate.  The breakfast was one of the best I've had in a hotel.  We had originally booked for 4 nights but decided to stay an additional night.  I had booked through priceline.com and tried to rebook the last night through them.  I assumed we would have the same room.  Unfortunately, we were told we'd have to move because our room was already taken.  We gathered our belongings and headed downstairs to have them stored.  The manager was very concerned about our situation, wanted to do everything possible so we wouldn't be inconvenienced, and arranged that we could stay in our room.  They definitey wanted us to be satisfied.  Their customer service was outstanding.  From the manager to the front desk to the housekeepers, everyone was friendly and smiling, and had a great attitude.  I'll definitely recommend this hotel to others and will be back myself!!!  Wonderful experience!More</t>
   </si>
   <si>
+    <t>dkrug10042</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r252098851-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1584,9 @@
     <t>Just stayed for the one night. They where able to accommodate me at the last minute and even got me checked in early.  The room was great and clean. I did not use the pool area but it looked clean. The hotel was quiet and very comfortable.  I will definitely stay again when I am in the area. The breakfast was well stocked and clean during my visit as well. More</t>
   </si>
   <si>
+    <t>FreedomTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r250104444-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1614,9 @@
     <t>Stay here when need to be in this part of Dallas for work.  Very nice hotel and staff, safe and clean.  Nice lobby and breakfast area.  Indoor pool and hot tub which was very hot and relaxing.  Great rates for including breakfast.  Small market with soda and snacks and Walmart across the highway is very convenient!  More</t>
   </si>
   <si>
+    <t>gloriash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r245117644-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1644,9 @@
     <t>We were pleased with this hotel. The room was comfortable, well furnished, &amp; clean.  Even the shampoo, conditioner, &amp; lotion were from Bed, Bath, &amp; Beyond!  The rate was reasonable, &amp; the staff were friendly &amp; helpful.  We were impressed with the breakfast.  Even though we arrived to eat about 30 minutes before closing time, there was plenty of food.  The tables were all clean, &amp; the hostess continued to keep all food replenished.  This also impressed us.More</t>
   </si>
   <si>
+    <t>rbjpk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r217137411-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1671,9 @@
     <t>We stayed here for a business trip. Wonderful location, great facility, delicious hot breakfast with fabulous cinnamon rolls. Friendly &amp; efficient staff. Great price! Good value. Cool pool &amp; hot tub! We will return &amp; recommend this motel. More</t>
   </si>
   <si>
+    <t>Michael2649</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r216048677-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1701,9 @@
     <t>We enjoyed our stay at this Holiday Inn Express.  The lobby and dining area are big and it almost has a large hotel feel when you walk into their doors. Their staff was friendly at all times of day.  Parking was well lit and it seemed like no parking spot was far from the front entry way.  Breakfast was good and the pool area was clean and nice.  Rooms were nicely decorated and the TV, bathroom and fridge/microwave worked great. Ice machine in the hall was in good working order. Our room had a little bit of internet connectivity problems at times when I was using my iPad and when my wife was using her iPad too. We were in a room at the end of the hall so we might have been on the fringe of this hotels wireless connectivity.  My iPad connected fine in the breakfast area in the mornings.  This hotel felt like it was far from places we wanted to visit in Dallas, but looking back now, it was easier traffic to work through to get to this hotel than some other places we saw in the heart of Dallas, so it worked out for us, even though we drove several miles to the sites we visited. I would stay at this Holiday Inn again.More</t>
   </si>
   <si>
+    <t>Utlawlra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r215223858-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1729,9 @@
   </si>
   <si>
     <t>Very clean, comfortable beds and pillows.  Mgmt was excellent--remembered our names when we arrived and throughout the stay.  Breakfast was good--nothing special, but decent.  Slept very well.  Unexpected surprise from a Holiday Inn property.  Great shuttle service.  Will stay again.More</t>
+  </si>
+  <si>
+    <t>Metaksams</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r214818608-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
@@ -1585,6 +1756,9 @@
 When we went to use the sleeper sofa,...A friend and I stayed here and it was very clean and well maintained.  We were in for a local dog show and got approval from the manager to bring our 2 - 45 lb dogs in.  The room was nice but don't know which one it was.  It had a small sleeper sofa, microwave, fridge, paper plates, plastic ware &amp; dish liquid which was a bonus.  The grounds were nicely maintained and the breakfast was very good and roomy.  When first getting there the night attendent was a little snippy when checking in which I was taken back with.  Since our dogs were 45 lbs and the requirement was nothing over 25lbs the manager had approved us to stay at the hotel.  She said she would make note on our reservation.  So while checking in and he saw "Will have show dogs."  He asked "What does that mean?"  I told him that she said she would make note on the account that our dogs were bigger than the 25lb limit.  "Who is She????"  When I told him the manager he got nice.  I was tired and really didn't need the drilling by what something meant that I had not even done myself.  Then as we walked by unloading our first load, he said "You need to move your vehicle, others are still checking!"  "We have another load to take up!"  Gesh....When we went to use the sleeper sofa, all the connectors were broken at the end so we used the cushions under it to hold it up.  They did have it fixed the next morning.  It was 9:00pm by then.  Changing rooms was not an option which was offered.  Another small issue was it was a little noisy with thinner walls and doors and had to complain to the front desk at 10:30pm after listening to a child? run back and forth above us for 2 1/2 hours.  This was not the hotels fault and once we complained it did stop.   We did make a stop at Walmart across the busy street and will say the neighborhood and area was a little questionable but never felt threatened or unsafe when at the hotel.  I know this is all confusing with a 4 rating but again it was a nice new hotel and I would stay there again.  Overall the experience was a good one and they did work hard with each complaint to correct it. Note:  If you choose the "No Cancellation" choice when making reservations and decide to cancel you WILL pay the full price.  There is no getting out of it.   A friend booked her room there and assumed that they would take a 45lb dog and made my reservation only to find out later that the dog limit was 25lbs.  I tried to get out of it and was the reason our dogs were accepted with the 45lb weight.  But they worked with us to make it work.  More</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r213685039-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1609,6 +1783,9 @@
     <t>Very clean, well maintained facility. Stayed in a "Suite" which was really nothing more than a large room with two beds and tiny sleeper sofa.   Appears new, but sure wish they had considered the neighborhood before constructing.   When friends who live in the Dallas area found out I was staying here,  they recommended I be in my room before dark and not venture out.  But, would I stay here again?  YES!  Staff was very professional and attentive to all our needs.  We had a problem with the sleeper sofa, but it was addressed quickly and staff most apologetic.   You can tell these folks still care about hospitality and customer service.More</t>
   </si>
   <si>
+    <t>Susan J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r212017178-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1633,6 +1810,9 @@
     <t>We stayed two nights.  Super comfortable beds and great continental breakfast.  Easy access to interstate.  Friendly staff.  Plenty of fast food around and a Wal Mart but not any fine dining.  Quiet rooms.  We were on the interstate side and could not hear any noise.More</t>
   </si>
   <si>
+    <t>Javier C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r210022917-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1657,6 +1837,9 @@
     <t>This hotel is super! I am a road rebel and travel extensively for business. I chose this hotel because it is not in Downtown Dallas but only a few miles east and I did not have to pay outrageous parking fees like I do when I stay in the Downtown area. The parking is free as well as the high speed wireless Internet. The customer service was OUTSTANDING! The agents are all very friendly and they all remembered my name. I was there for 4 days and I was so happy that they provide a full hot breakfast buffet for FREE!! I know all Holiday Inn Express Hotels are similar but this one stands out. The rooms were very cozy and well kept. I slept very comfortably. I will use this property the next time I am in the Dallas - Mesquite area.More</t>
   </si>
   <si>
+    <t>Natalie V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r209730146-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1684,6 +1867,9 @@
     <t>We traveled on a Friday evening so our children would sleep most of the trip to Dallas.  We arrived about 1:00am.  The front desk clerk was not unfriendly but came across irritated when I asked about a crib being in our room.  I had called Friday morning and requested one and the woman said it was not problem.  The man said there was no reservation for one showing on the computer.  Thank goodness he had one left.  He said if it wasn't in our room to let him know and he would bring it up.  We head up to our room to find no crib and that the smoke alarm was beeping.  I called the clerk/manager to let him know of the situation.  He very quickly said he was busy but would call me back in 2 minutes which turned into 10-15 minutes of us waiting for a call.  We didn't unload our luggage because we thought he may end up moving us.  After he called us back it took another 10-15 minutes for him to come up and he did bring the crib.  He couldn't fix the smoke alarm but did cause the 2nd one to start going off.  He said he would have to get the tech/electrician out there because he didn't have another room to move us.  However,  when I was previously waiting in the lobby I heard him tell a walk-in at the door he did...We traveled on a Friday evening so our children would sleep most of the trip to Dallas.  We arrived about 1:00am.  The front desk clerk was not unfriendly but came across irritated when I asked about a crib being in our room.  I had called Friday morning and requested one and the woman said it was not problem.  The man said there was no reservation for one showing on the computer.  Thank goodness he had one left.  He said if it wasn't in our room to let him know and he would bring it up.  We head up to our room to find no crib and that the smoke alarm was beeping.  I called the clerk/manager to let him know of the situation.  He very quickly said he was busy but would call me back in 2 minutes which turned into 10-15 minutes of us waiting for a call.  We didn't unload our luggage because we thought he may end up moving us.  After he called us back it took another 10-15 minutes for him to come up and he did bring the crib.  He couldn't fix the smoke alarm but did cause the 2nd one to start going off.  He said he would have to get the tech/electrician out there because he didn't have another room to move us.  However,  when I was previously waiting in the lobby I heard him tell a walk-in at the door he did have a room for $199.  So I am not sure if he was lying or not.....I should have asked.  He told us it would be about 30 minutes before the person could be there to fix it.  We waited about 10 minutes and he returned to attempt fixing it again.  He couldn't then said he would then have to call the tech to come.  We were so frustrated at this point because all that time had gone by and he still had not made the call so we would have to now wait an additional 30 minutes.  Our greatest frustration was not understanding why a Holiday Inn would not keep batteries on-hand.  The man discounted our room at 50% but after the fact we felt it should have been fully refunded for that night because we stayed a 2nd night and we were unable to even go to bed until 3:30.  Thanks goodness our 9 month old was at least asleep in the bathroom through the whole ordeal but our 3 year old was up the whole time which led to crankiness and all of us being exhausted on Saturday.  The beds were not that comfortable and we were also unhappy with all the light that was still making its way into the room from outside and the hallway.  One of the comforters had several hairs on it.  I think each thing added up to us being really unhappy.  Although it was a great location(close to the hospital we were there to visit my father in law), we will not be staying there again.  I have always been happy with Holiday Inns but this lost my faith a little.More</t>
   </si>
   <si>
+    <t>Arnt78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r209510028-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1705,6 +1891,9 @@
     <t>Having stayed at several HIE properties before I have considered it a safe choice. This property also looked ok on check in. We got a room on the ground floor, it was very hot, but we set the A/C to work and went in to Dallas for a concert in Reunion park. It was late before we came back, but the room still was a bit on the warm side. The A/C problem was brought to the attention of the reception, but according to them they were fully booked so there wasn’t much to do about it. So we settled in, letting the dying A/C work on it. The main problem started later in the night, having a room next to the fire/side exit did not pay off. That door would go slamming shut every 15-20 minutes or so, keeping me awake most of the night. Luckily my kids are better sleepers than me, and slept through it. Worse for the kids was the pool area, it is in dire need of a touch up, and a control of the chemical balance of the water ASAP. The water reeked of chlorine, and the kids had to do with a dip in the tub in the room.More</t>
   </si>
   <si>
+    <t>Ginger P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r205983351-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1729,6 +1918,9 @@
     <t>We chose this hotel because of the location. We will recommend this hotel because of the excellent service! When our television was not working the front desk called the General Manager, Lindsay, and he happened to be in the area and came immediately. He was not able to solve the problem, so he called Angel the maintenance man. In the mean time we had a great conversation about his son. It was like being with an old friend. BTW Angel was able to fix the TV! I also want to comment on the awesome service provided by Roshandra the evening desk clerk. She too treated us like old friends. The service of this hotel is some of the best I have ever been offered!More</t>
   </si>
   <si>
+    <t>Maven14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r202911563-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1753,6 +1945,9 @@
     <t>Mr plumlee (night time manager) is disrespectful and not very accommodating to guests. He was very aggressive and used language around minors that was unbecoming of an adult. He threatened to call the police on guests that had broken no laws but he deemed were loud which they weren't. I witnessed the entire event. I book with holiday inn atleast 60 nights per year and am currently considering never booking with them again due to this experience.More</t>
   </si>
   <si>
+    <t>vanceiii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r198066197-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +1975,9 @@
     <t>We are still here after the first night of a 3 night booking, and I must say what an excellent choice. The rooms are much nicer than an ordinary holiday inn express, with extra attention to detail. We have the King Standard room and it has a king bed plus a pullout bed/sofa, fridge, microwave, coffee maker in room. The bathroom sink is really cool looking, a molded glass sink/counter top and fountain type faucet, My kid would love the doorbell on the room. (if he were with us on this trip), Indoor pool, indoor hot tub, workout center, business center, WIFI, Free parking, excellent Location, WOW!! , what else could you ask for??  Maybe for the General Manager to come greet you at breakfast, to make sure your stay is going well??  Guess what? That's exactly what happened to us...   Thank you Mr. Owens! :-) This Hotel was an EXCELLENT CHOICE!!!...More</t>
   </si>
   <si>
+    <t>Bvbrunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r197998921-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1798,6 +1996,9 @@
     <t>Staying for 8 days due to work and brought my wife with me. Room is clean and staff is very friendly. Bed is comfortable and clean. I usually bring pillows with me but this time the pillows were so comfortable I didn't neeMore</t>
   </si>
   <si>
+    <t>Lindsay3182</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r196933845-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1822,6 +2023,9 @@
     <t>Awesome, Awesome place to stay...highly recommend that u come try it out!! You will be pleasantly pleased...loved our stay so much, we decided to stay one more night!! Staff is extremely friendly...oh yeah the breakfast is oh so delicious, too..especially the biscuits &amp; gravy!!More</t>
   </si>
   <si>
+    <t>litebright</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r196484571-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1846,6 +2050,9 @@
     <t>Visiting family we wanted to stay on the East side of Dallas for convenience.  This hotel was the perfect solution.  We were greeted by the staff and made to feel at home.  The rooms were large, clean, and very comfortable beds.  The hotel was quiet and well maintained.  We loved it and it was one of the nicest hotels we have ever stayed in. We felt the cost was reasonable for a hotel in Dallas Texas.More</t>
   </si>
   <si>
+    <t>Cheree R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r171064756-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1873,6 +2080,9 @@
     <t>When we arrived the front desk clerk (did not get her name) was very helpful.  We chose this hotel because a friend was having surgery the next morning at Baylor and it was a short drive. Around 10:30 we discovered our TV was not working and called the front desk.  The 11-7 shift desk clerk Mr. Hernandez came to our room as soon as he clocked in and corrected the problem with the TV.  Around midnight the room above us was so loud that we could not get any sleep and I called Mr. Hernandez and he took care of the problem and the next morning when I went down to breakfast he was still on duty so I was able to thank him for all his help.  I just wanted to be sure his manager knew how good a desk clerk they have with him.  The overall stay was great.More</t>
   </si>
   <si>
+    <t>TchrTech</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r169277230-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1894,6 +2104,9 @@
     <t>Clean hotel, easy in and out access from freeway, and courteous staff. It is hard to find a decent hotel in this area - many seem to be very old and run down, so this one was a bright spot in East Dallas! At about 5:45 AM one of the smoke detectors in our room began to beep (low battery). The person on duty came immediately and removed the battery. Breakfast on Saturday does not begin until 7:00 AM...sure could have used a cup of coffee after the smoke detector woke us up. The only coffee packet in the room was decaf...no regular. Overall, this is a great place to stay, but there were a few details lacking during our stay.More</t>
   </si>
   <si>
+    <t>islandmann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r165119722-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1912,6 +2125,9 @@
     <t>Very updated decor and extremely comfortable beds. Got the queen bed suite with the pullout couch for 12 year old. Room had very nice fridge, micro, flat screen tv. Came in late and had very fast check in. What was amazing was the level of service we received from the day manager the next morning. Enterprise messed up our car reservations and he went to bat for us to get us the car and rate we had reserved. Cant express how much he did and how relieved we were to finally get our rental car. Really this level of assistance usually only comes from family members. Good location for our needs as we were heading to LA next day, cab ride approximately $55 from airport We liked it so much we have returned for another night as we continue our travels. Highly recommend!!More</t>
   </si>
   <si>
+    <t>ValleySon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r162124771-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1930,6 +2146,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Caligranny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r162019557-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1945,6 +2164,9 @@
     <t>This is the tenth time we've stayed here and every time we've been pleased. The price is great, the amenities above average, the service friendly and the breakfast top notch. Kudos to the staff for keeping such a clean and attractive hotel!</t>
   </si>
   <si>
+    <t>Sandy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r158494412-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1978,6 +2200,9 @@
     <t xml:space="preserve">The hotel was very clean and freshly updated. The staff were very friendly and helpful. The location of the hotel is a little shady and they even leave warnings in each room on how to stay safe. The other issue is that you can hear everyone in the hallway as there are large gaps around the door. </t>
   </si>
   <si>
+    <t>deebeearr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r152806044-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2014,6 +2239,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>sfromd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r152076031-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2038,6 +2266,9 @@
     <t>The staff was very professional. The rooms were clean but after switching rooms twice, I realized that the entire TV system/cable was flawed. It took forever to change channels. There was a long delay and the TV continuously read signal lost etc etc... very frustrating. The staff did try to make things right. It was just the cable system, not really their fault. Still I would not stay more than one night. More</t>
   </si>
   <si>
+    <t>Missy56163</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r115444413-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2056,6 +2287,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>Familyoffivemom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r111038613-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2075,6 +2309,9 @@
   </si>
   <si>
     <t>We stayed here on a family vacation. I booked this hotel because it had been built only a yeat before out stay, but we couldn't tell by our experience. Check in went well. Then we unloaded the luggange onto the cart.... The luggage cart had a broken wheel. I reported it to the front desk and their response to that was they already knew. Noone bothered to tell us. Complete hassel getting to the room. We attempted to go swimming, the pool area was like a steam room, and we couldn't breath, not to mention the over powering smell of chlorine. The hand rail in the pool area was broken, which is a safety hazard. The rooms were decent and we thaught it was cool that the speakers to the TV went into the bathroom, but thats about it. After a long day sight seeing wanting nothing more than to get in out room, our key didn't work, both nights of our stay. When we asked for help on directions or any other assistance. The staff was rude or just told us to use the buisness center. No extra help was offered. If you are going to Dallas, I strongly suggest that you find another hotel. Terriable experience.More</t>
+  </si>
+  <si>
+    <t>dreamnofnyc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r110549504-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
@@ -2106,6 +2343,9 @@
 We were frustrated but we're not picky people so we just decided to head to the hot tub. Only to find out that it was broken. . . and had been broken for over a week. Don't you think - knowing it's Memorial...My husband and I have stayed at Holiday Inn Express before and have had great experiences. However, after this trip I don't know that we'll ever be staying at one again . . .We were working at a wedding, only about 45 minutes from our home, but knew we'd be finishing quite late. So, as we've done before, we decided to book a hotel so we could just relax and specifically booked a hotel with a hot tub so we unwind on Memorial Day.From the moment we checked in, it was one thing after another. When I made the reservation I specifically noted we would be checking in quite late. Well the front desk person seemed quite annoyed when we checked in around 12:30am. When we got to the room half the lights didn't work. We were woken up on Memorial Day at 7am . . .and couldn't get back to sleep so we decided to head down to the breakfast.Now, I appreciate that HIEx offers free breakfast, but compared to others we've stayed at, the food was quite terrible - already running out of stuff and stuff was all dried up at 7am.We were frustrated but we're not picky people so we just decided to head to the hot tub. Only to find out that it was broken. . . and had been broken for over a week. Don't you think - knowing it's Memorial Day weekend and a lot of people are going to be traveling you would make fixing it a priority?? I don't even think they had bothered to call anyone to fix it.At this point, we decided we had to ask for at least a partial refund, which we have never done. We paid over $100 so we could enjoy a relaxing memorial day and we were wishing we just would have driven home. When my husband kindly addressed his concerns and asked for a partial refund or credit towards a future stay, they refused and said he had to call the manager - who conveniently WASN'T there - probably off enjoying his/her holiday. Must be nice. We were out of there by 8:30am. What a waste of money!I'm surprised the regional manager of the HI Expresses in Dallas is okay with this level of quality because this experience has definitely turned us off to booking with them in the future.More</t>
   </si>
   <si>
+    <t>Pinholecamera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r108651099-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2361,9 @@
     <t>This was overall a good hotel with a very nice room and the location was close to downtown and the convention center.  However, there are no good restaurants real close. The breakfast was OK but very "institutional" in flavor and variety.  However, DO NOT LEAVE ANYTHING BEHIND when you check out or you will not get it back.  I had a lock and cable for my suit case and I'm sure I forgot it in my room.  I called the next day and I was told it was not found.  I was assured by the manager how honest his staff is and that I must be mistaken.</t>
   </si>
   <si>
+    <t>trawhysee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r85787481-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2137,6 +2380,9 @@
   </si>
   <si>
     <t>We had a great experience at this location. Check-in was quick and easy.  We had an issue with our Priority Club account (totally our fault, not theirs), and the employee fixed it with no problem.  The room was at a comfortable temperature when we arrived and everything looked clean. It was a nice, spacious room with 2 queens. We forgot toothpaste, but we were able to get a free travel size one from the front desk!  I was so thankful for that! I had one of the best nights sleep I've had in a long time (I'm a new first time mom) and there were no noise disturbances from other guests.Although we were late coming down for breakfast, there were still items left out, so we were able to eat a little something before we headed home.  I was surprised because hotels normally put everything away right away.  Check-out was a breeze as well.Our only complaint was that the coffee pot wasn't working, but, luckily, there was coffee in the lobby.More</t>
+  </si>
+  <si>
+    <t>mfulton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1214715-r45900631-Holiday_Inn_Express_Suites_Dallas_Fair_Park-Dallas_Texas.html</t>
@@ -2659,43 +2905,47 @@
       <c r="A2" t="n">
         <v>59170</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2709,50 +2959,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59170</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>85959</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2764,56 +3018,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59170</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>20726</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2825,56 +3083,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59170</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2892,50 +3154,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59170</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>85461</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2947,56 +3213,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59170</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>21850</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3008,56 +3278,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59170</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>118053</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3069,56 +3343,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59170</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>8862</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3136,56 +3414,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59170</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>56120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3197,56 +3479,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59170</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3262,56 +3548,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59170</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>28420</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3329,56 +3619,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59170</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3390,56 +3684,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59170</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3457,56 +3755,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59170</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3524,56 +3826,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59170</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>5577</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3585,56 +3891,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59170</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3646,56 +3956,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59170</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>62941</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3707,56 +4021,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59170</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>5413</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3772,56 +4090,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59170</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3839,56 +4161,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59170</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3900,38 +4226,42 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59170</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s"/>
       <c r="K22" t="s"/>
@@ -3948,51 +4278,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59170</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4004,56 +4335,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59170</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4065,56 +4400,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59170</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4132,56 +4471,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59170</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>14729</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
+        <v>261</v>
+      </c>
+      <c r="K26" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>236</v>
       </c>
-      <c r="K26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L26" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>214</v>
-      </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4193,56 +4536,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59170</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>48845</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4260,56 +4607,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59170</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4327,56 +4678,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59170</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>47948</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4394,56 +4749,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="X29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59170</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4459,56 +4818,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="X30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59170</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>97075</v>
+      </c>
+      <c r="C31" t="s">
+        <v>305</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4520,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="X31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="Y31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
@@ -4539,37 +4902,37 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4581,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
@@ -4600,37 +4963,37 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4642,56 +5005,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59170</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>13944</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4709,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="X34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="Y34" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59170</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>18756</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4770,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="X35" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="Y35" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59170</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>95839</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="J36" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="K36" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4837,56 +5212,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="X36" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59170</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4904,56 +5283,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X37" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y37" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59170</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>365</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L38" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4965,56 +5348,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="X38" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59170</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O39" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -5032,56 +5419,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="X39" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="Y39" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59170</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5097,56 +5488,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="X40" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y40" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59170</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>394</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="J41" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="K41" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5164,56 +5559,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="X41" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="Y41" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59170</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>403</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5225,56 +5624,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="X42" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="Y42" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59170</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>98536</v>
+      </c>
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5292,56 +5695,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="X43" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="Y43" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59170</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>419</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5353,56 +5760,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59170</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5420,56 +5831,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59170</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5485,56 +5900,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="X46" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59170</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5546,56 +5965,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="X47" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="Y47" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59170</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>16612</v>
+      </c>
+      <c r="C48" t="s">
+        <v>457</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="K48" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="L48" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5607,56 +6030,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="X48" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="Y48" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59170</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7096</v>
+      </c>
+      <c r="C49" t="s">
+        <v>466</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="K49" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="L49" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="O49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5672,56 +6099,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="X49" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="Y49" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59170</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>475</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="J50" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="L50" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5739,56 +6170,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="X50" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="Y50" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59170</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155171</v>
+      </c>
+      <c r="C51" t="s">
+        <v>484</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="J51" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="K51" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="L51" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5806,56 +6241,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="X51" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59170</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>494</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O52" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5867,56 +6306,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="X52" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="Y52" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59170</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>28631</v>
+      </c>
+      <c r="C53" t="s">
+        <v>503</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="J53" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="K53" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="L53" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5932,47 +6375,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="X53" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="Y53" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59170</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>513</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="J54" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="K54" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="L54" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5989,56 +6436,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="X54" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="Y54" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59170</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>522</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="J55" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="K55" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="L55" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="O55" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6050,56 +6501,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="X55" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="Y55" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59170</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>532</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="J56" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="K56" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="L56" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6115,47 +6570,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="X56" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="Y56" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59170</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>542</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="J57" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="K57" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="L57" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6172,56 +6631,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="X57" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="Y57" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59170</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>551</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="J58" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="K58" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="L58" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6237,56 +6700,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="X58" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="Y58" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59170</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>561</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="J59" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="K59" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="L59" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="O59" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6302,56 +6769,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="X59" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="Y59" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59170</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>571</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="J60" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="K60" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="L60" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O60" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6363,56 +6834,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="X60" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="Y60" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59170</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>450</v>
+      </c>
+      <c r="C61" t="s">
+        <v>578</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="J61" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="K61" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="L61" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="O61" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6424,56 +6899,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="X61" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="Y61" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59170</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>21179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>587</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="J62" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="K62" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="L62" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="O62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6495,56 +6974,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="X62" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="Y62" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59170</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>596</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="K63" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="O63" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6566,56 +7049,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="X63" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="Y63" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59170</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>89197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>605</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="J64" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="K64" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="L64" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6637,56 +7124,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="X64" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="Y64" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59170</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>47653</v>
+      </c>
+      <c r="C65" t="s">
+        <v>615</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="J65" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="K65" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="L65" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6708,56 +7199,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="X65" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="Y65" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59170</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>100814</v>
+      </c>
+      <c r="C66" t="s">
+        <v>623</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="J66" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="K66" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="L66" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6779,47 +7274,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="X66" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="Y66" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59170</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>632</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="J67" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="K67" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="L67" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
@@ -6846,56 +7345,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="X67" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="Y67" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59170</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>641</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="J68" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="K68" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="L68" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="O68" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6917,56 +7420,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="X68" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="Y68" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59170</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>651</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="J69" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="K69" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="L69" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="O69" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6988,47 +7495,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="X69" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="Y69" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59170</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>658</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="J70" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="K70" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="L70" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7055,56 +7566,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="X70" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="Y70" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59170</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>667</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="J71" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="K71" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="L71" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7126,56 +7641,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="X71" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="Y71" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59170</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>676</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="J72" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="K72" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="L72" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="O72" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7197,56 +7716,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="X72" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="Y72" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59170</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>686</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="J73" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="K73" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="L73" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7268,56 +7791,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="X73" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="Y73" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59170</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>694</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="J74" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="K74" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="L74" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7339,56 +7866,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="X74" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="Y74" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59170</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>155189</v>
+      </c>
+      <c r="C75" t="s">
+        <v>701</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="J75" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="K75" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="L75" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7412,50 +7943,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59170</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155190</v>
+      </c>
+      <c r="C76" t="s">
+        <v>708</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="J76" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="K76" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="L76" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="O76" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7469,50 +8004,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59170</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>16670</v>
+      </c>
+      <c r="C77" t="s">
+        <v>714</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="J77" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="K77" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="L77" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7536,7 +8075,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78">
@@ -7549,28 +8088,28 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="J78" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="K78" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="L78" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7599,50 +8138,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59170</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>726</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="J79" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="K79" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="L79" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="O79" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7666,7 +8209,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80">
@@ -7679,37 +8222,37 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="J80" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="K80" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="L80" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="O80" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7733,50 +8276,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59170</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>739</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="J81" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="K81" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="L81" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="O81" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7788,56 +8335,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="X81" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="Y81" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59170</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>155193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>748</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="J82" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="K82" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="L82" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7857,50 +8408,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59170</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>155194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>755</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="J83" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="K83" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="L83" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7920,50 +8475,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>684</v>
+        <v>762</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59170</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>763</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="J84" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="K84" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="L84" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="O84" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7977,50 +8536,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59170</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>771</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="J85" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="K85" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="L85" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="O85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8044,50 +8607,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59170</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>777</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="J86" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="K86" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="L86" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="O86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8111,50 +8678,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59170</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>784</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="J87" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="K87" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="L87" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="O87" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8168,7 +8739,7 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
